--- a/config.xlsx
+++ b/config.xlsx
@@ -1,177 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\python_work\脚本分类、合并\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74DF9A5-44C7-4824-A501-3C67A6A2F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="手动配置" sheetId="1" r:id="rId1"/>
-    <sheet name="Regular Expression-自动生成" sheetId="2" r:id="rId2"/>
+    <sheet name="手动配置" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Regular Expression-自动生成" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>zhy</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>此表数据都是自动生成的</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>标记配置</t>
-  </si>
-  <si>
-    <t>预设正则表达式标记</t>
-  </si>
-  <si>
-    <t>解释</t>
-  </si>
-  <si>
-    <t>【CREATE】【\s+】【TABLE】【\s+】【`?】【@表名】【`?】【\s+】【\(】</t>
-  </si>
-  <si>
-    <t>【\s+】</t>
-  </si>
-  <si>
-    <t>空格出现至少出现1次</t>
-  </si>
-  <si>
-    <t>【alter】【\s+】【table】【\s+】【`?】【@表名】【`?】【\s+】</t>
-  </si>
-  <si>
-    <t>【\s*】</t>
-  </si>
-  <si>
-    <t>空格出现0或多次</t>
-  </si>
-  <si>
-    <t>【t_prc_db_sence_datarule】【`?】【\s+】【\w*】【\s+】【`?】【BUSINESSFLOW_SENCECODE】【`?】【\s*】【=】【\s*】【'】【@引擎名】【'】</t>
-  </si>
-  <si>
-    <t>【`?】</t>
-  </si>
-  <si>
-    <t>字段符号`出现0或1次</t>
-  </si>
-  <si>
-    <t>【t_prc_db_datarule】【`?】【\s+】【\w*】【\s+】【`?】【DATARULE_CODE】【`?】【\s*】【=】【\s*】【'】【@引擎名】【'】</t>
-  </si>
-  <si>
-    <t>【\w*】</t>
-  </si>
-  <si>
-    <t>任意字符</t>
-  </si>
-  <si>
-    <t>【'】</t>
-  </si>
-  <si>
-    <t>单引号'</t>
-  </si>
-  <si>
-    <t>【\(】</t>
-  </si>
-  <si>
-    <t>括号(</t>
-  </si>
-  <si>
-    <t>正则表达式-操作类型（创建表、修改表结构、修改规则引擎）</t>
-  </si>
-  <si>
-    <t>正则表达式-操作对象名（表名、规则引擎名）</t>
-  </si>
-  <si>
-    <t>CREATE\s+TABLE\s+`?\w+`?\s+\(</t>
-  </si>
-  <si>
-    <t>CREATE\s+TABLE\s+`?(.*?)`?\s+\(</t>
-  </si>
-  <si>
-    <t>alter\s+table\s+`?\w+`?\s+</t>
-  </si>
-  <si>
-    <t>alter\s+table\s+`?(.*?)`?\s+</t>
-  </si>
-  <si>
-    <t>t_prc_db_sence_datarule`?\s+\w*\s+`?BUSINESSFLOW_SENCECODE`?\s*=\s*'\w+'</t>
-  </si>
-  <si>
-    <t>t_prc_db_sence_datarule`?\s+\w*\s+`?BUSINESSFLOW_SENCECODE`?\s*=\s*'(.*?)'</t>
-  </si>
-  <si>
-    <t>t_prc_db_datarule`?\s+\w*\s+`?DATARULE_CODE`?\s*=\s*'\w+'</t>
-  </si>
-  <si>
-    <t>t_prc_db_datarule`?\s+\w*\s+`?DATARULE_CODE`?\s*=\s*'(.*?)'</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -193,16 +80,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -212,58 +99,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zhy</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>此表数据都是自动生成的</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:A5" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:A5">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="标记配置"/>
+    <tableColumn id="1" name="标记配置-符合正则表达式-手动修改"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="C1:D7" totalsRowShown="0">
-  <autoFilter ref="C1:D7" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C1:D8" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="C1:D8">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="预设正则表达式标记"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="解释"/>
+    <tableColumn id="1" name="正则表达式标记"/>
+    <tableColumn id="2" name="解释"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,164 +492,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="137.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col width="137.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>标记配置-符合正则表达式-手动修改</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>正则表达式标记</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>解释</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>【CREATE】【\s+】【TABLE】【\s+】【`?】【@表名】【`?】【\s+】【\(】</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>【\s+】</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>空白出现至少出现1次</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>【alter】【\s+】【table】【\s+】【`?】【@表名】【`?】【\s+】</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>【\s*】</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>空白出现0或多次</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>【t_prc_db_sence_datarule】【`?】【\s+】【\w*】【\s+】【`?】【BUSINESSFLOW_SENCECODE】【`?】【\s*】【=】【\s*】【'】【@引擎名】【'】</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>【`?】</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>字段符号`出现0或1次</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>【t_prc_db_datarule】【`?】【\s+】【\w*】【\s+】【`?】【DATARULE_CODE】【`?】【\s*】【=】【\s*】【'】【@引擎名】【'】</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>【\w*】</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>任意字符</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>【'】</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>自定义的单引号'</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>【\(】</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>括号(</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>【@xxx】</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>是自定义提取的内容</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.88671875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col width="75.33203125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="75" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="2" min="3" max="14"/>
+    <col width="8.88671875" customWidth="1" style="2" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>正则表达式-操作类型（创建表、修改表结构、修改规则引擎）</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>正则表达式-操作对象名（表名、规则引擎名）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CREATE\s+TABLE\s+`?\w+`?\s+\(</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CREATE\s+TABLE\s+`?(.*?)`?\s+\(</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>alter\s+table\s+`?\w+`?\s+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>alter\s+table\s+`?(.*?)`?\s+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t_prc_db_sence_datarule`?\s+\w*\s+`?BUSINESSFLOW_SENCECODE`?\s*=\s*'\w+'</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>t_prc_db_sence_datarule`?\s+\w*\s+`?BUSINESSFLOW_SENCECODE`?\s*=\s*'(.*?)'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t_prc_db_datarule`?\s+\w*\s+`?DATARULE_CODE`?\s*=\s*'\w+'</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>t_prc_db_datarule`?\s+\w*\s+`?DATARULE_CODE`?\s*=\s*'(.*?)'</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>